--- a/downloads/atom-importer-data-entry.xlsx
+++ b/downloads/atom-importer-data-entry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radancy/sfuvault2/RDWork/01-9_DigitalInfrastructure/DRUtilities/AtoMImporter/New/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radancy/sfuvault2/RDWork/01-9_DigitalInfrastructure/DRUtilities/AtoMImporter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9C0D6B-26FE-A044-B625-ABB0D0BCCF36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDCB61B-BF13-B641-B998-342E5F7A8600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="27840" windowHeight="17900" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -738,7 +738,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1609,10 +1609,10 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1634,7 +1634,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
